--- a/data/InvOce.xlsx
+++ b/data/InvOce.xlsx
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1564,7 +1564,7 @@
         <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
